--- a/xls/TABLE_物品.xlsx
+++ b/xls/TABLE_物品.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="777">
   <si>
     <t>唯一ID</t>
   </si>
@@ -2343,6 +2343,18 @@
   </si>
   <si>
     <t>s</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -3341,7 +3353,7 @@
   <dimension ref="A1:P159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3358,7 +3370,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
@@ -3408,7 +3420,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="B2" t="s">
         <v>768</v>
@@ -3444,16 +3456,16 @@
         <v>769</v>
       </c>
       <c r="M2" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="N2" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="O2" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="P2" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
     </row>
     <row r="3" spans="1:16">
